--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_SUA_CHUA_LON.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_SUA_CHUA_LON.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2SProject\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFD45D6-3DEE-42E9-BEA4-624446BADEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,8 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +77,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -86,7 +94,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,30 +148,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -171,6 +179,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -444,72 +458,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:7" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_SUA_CHUA_LON.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_SUA_CHUA_LON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFD45D6-3DEE-42E9-BEA4-624446BADEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF389602-D641-4F47-A9D9-378FDFECA6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>TỔNG HỢP KẾ HOẠCH SỬA CHỮA LỚN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
@@ -43,6 +40,24 @@
   </si>
   <si>
     <t>HIỆN TRẠNG</t>
+  </si>
+  <si>
+    <t>TỔNG CÔNG TY HÀNG KHÔNG VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN</t>
+  </si>
+  <si>
+    <t>Độc lập - Tự do - Hạnh phúc</t>
+  </si>
+  <si>
+    <t>NHIÊN LIỆU HÀNG KHÔNG VIỆT NAM (SKYPEC)</t>
+  </si>
+  <si>
+    <t>BÁO CÁO KẾ HOẠCH SỬA CHỮA LỚN</t>
   </si>
 </sst>
 </file>
@@ -139,12 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -164,14 +176,27 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -194,6 +219,119 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4AF711-8E8F-43FC-A642-744BABF3D2E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="66675" y="552449"/>
+          <a:ext cx="3095625" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C56C60-A253-46AD-AE9C-A66B32948CC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6019800" y="381000"/>
+          <a:ext cx="2447925" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,65 +609,95 @@
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+    </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:E3"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>